--- a/doc/myband/fase-1/userstories.xlsx
+++ b/doc/myband/fase-1/userstories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joepd\Documents\ma\bewijzenmap\periode1.4\proj\MyBand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\SecureBand\doc\myband\fase-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9E1D48-91C2-4B4D-96AD-013D84B27D02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1B88A6-E5CB-47C8-8D0F-F995140E0B11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{32634C4F-B881-4B5A-9905-E623C0B932E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{32634C4F-B881-4B5A-9905-E623C0B932E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Als een …</t>
   </si>
@@ -111,6 +111,33 @@
   </si>
   <si>
     <t>op een ander account kan inloggen</t>
+  </si>
+  <si>
+    <t>Use case</t>
+  </si>
+  <si>
+    <t>Beveilingeisen</t>
+  </si>
+  <si>
+    <t>Als Gebruiker wil ik informatie toevoegen</t>
+  </si>
+  <si>
+    <t>tegen SQL-injection beveiligd zijn</t>
+  </si>
+  <si>
+    <t>Als Geregisteerd gebruiker wil ik inloggen op mijn account</t>
+  </si>
+  <si>
+    <t>Beveiligen tegen kwetsbaarheden</t>
+  </si>
+  <si>
+    <t>tegen Broken authentication beveiligd zijn</t>
+  </si>
+  <si>
+    <t>Als Admin wil ik de account kunnen zien</t>
+  </si>
+  <si>
+    <t>tegen sensitive Data Exposure beiveiligd zijn</t>
   </si>
 </sst>
 </file>
@@ -158,10 +185,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -476,16 +512,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5D1F37-B905-443E-9657-8BA7572CD4E6}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
     <col min="3" max="3" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
@@ -688,6 +724,43 @@
         <v>18</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
